--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_19_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_19_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2513367.154001008</v>
+        <v>-2516287.060687283</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -668,58 +668,58 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="H2" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,17 +744,17 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -789,11 +789,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>4.562286607642875</v>
       </c>
       <c r="R4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="U4" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="V4" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.350839134383055</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.87638523748972</v>
+        <v>13.87638523748973</v>
       </c>
       <c r="H5" t="n">
-        <v>25.09453918435992</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>25.09453918435992</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="S5" t="n">
-        <v>25.09453918435992</v>
+        <v>1.350839134381507</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>25.09453918435992</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="E6" t="n">
-        <v>25.09453918435992</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="I6" t="n">
-        <v>25.09453918435992</v>
+        <v>22.10327011358266</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>22.10327011358421</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>22.10327011358421</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.09453918435992</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.09453918435992</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.10327011358266</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>25.09453918435992</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.38870434448781</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="I8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>48.84734916635383</v>
+        <v>62.23605351084166</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>62.17490796054055</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>54.13711731454486</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>36.57392307749219</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="T9" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="U9" t="n">
-        <v>8.037790645995708</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>112.1126601249237</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>51.82194179032386</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>51.82194179032387</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>229.7965692041376</v>
+        <v>120.6088074159612</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.559750570600383</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>204.8734971266169</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>281.6902003958933</v>
+        <v>373.6205491710604</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516573</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>200.6028050067863</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>72.6894458997738</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442973</v>
+        <v>53.02401554771154</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038374</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V19" t="n">
         <v>220.5274409716141</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642294905</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2564,10 +2564,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H26" t="n">
         <v>255.2416659947559</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y26" t="n">
         <v>354.6277363038396</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D28" t="n">
         <v>117.0052706659984</v>
@@ -2722,16 +2722,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2801,10 +2801,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
         <v>255.2416659947559</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
         <v>354.6277363038396</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D31" t="n">
         <v>117.0052706659984</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3004,16 +3004,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y31" t="n">
         <v>186.9744509998808</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
@@ -3089,7 +3089,7 @@
         <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651987</v>
       </c>
       <c r="X32" t="n">
         <v>338.1208983262551</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
         <v>135.6366187464139</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.5262913945301</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,13 +3241,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
         <v>194.0994530368232</v>
@@ -3266,7 +3266,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
         <v>323.072839268469</v>
@@ -3275,10 +3275,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
         <v>255.2416659947559</v>
@@ -3320,16 +3320,16 @@
         <v>168.9926026545723</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645677</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
         <v>354.6277363038396</v>
@@ -3430,7 +3430,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642294995</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545723</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
         <v>219.3243840645688</v>
@@ -3800,7 +3800,7 @@
         <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651978</v>
       </c>
       <c r="X41" t="n">
         <v>338.1208983262551</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
         <v>135.6366187464139</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
         <v>194.0994530368232</v>
@@ -4037,7 +4037,7 @@
         <v>296.142056117921</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651978</v>
       </c>
       <c r="X44" t="n">
         <v>338.1208983262551</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C2" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D2" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E2" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F2" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G2" t="n">
-        <v>9.032405809070742</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H2" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I2" t="n">
         <v>0.36498292861143</v>
       </c>
       <c r="J2" t="n">
-        <v>0.36498292861143</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="K2" t="n">
-        <v>4.881646670177876</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="L2" t="n">
-        <v>4.881646670177876</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M2" t="n">
+        <v>4.69915520587216</v>
+      </c>
+      <c r="N2" t="n">
         <v>9.215818947438606</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>13.73248268900505</v>
-      </c>
-      <c r="O2" t="n">
-        <v>18.2491464305715</v>
       </c>
       <c r="P2" t="n">
         <v>18.2491464305715</v>
@@ -4352,28 +4352,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R2" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="S2" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="T2" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="U2" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="V2" t="n">
         <v>13.64077611982112</v>
       </c>
-      <c r="S2" t="n">
-        <v>9.032405809070742</v>
-      </c>
-      <c r="T2" t="n">
-        <v>9.032405809070742</v>
-      </c>
-      <c r="U2" t="n">
-        <v>9.032405809070742</v>
-      </c>
-      <c r="V2" t="n">
-        <v>9.032405809070742</v>
-      </c>
       <c r="W2" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X2" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.973353239361809</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C3" t="n">
-        <v>4.973353239361809</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D3" t="n">
-        <v>4.973353239361809</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E3" t="n">
         <v>4.973353239361809</v>
       </c>
       <c r="F3" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G3" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H3" t="n">
         <v>0.36498292861143</v>
@@ -4437,7 +4437,7 @@
         <v>18.2491464305715</v>
       </c>
       <c r="T3" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U3" t="n">
         <v>13.64077611982112</v>
@@ -4449,10 +4449,10 @@
         <v>13.64077611982112</v>
       </c>
       <c r="X3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="I4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="J4" t="n">
         <v>0.36498292861143</v>
       </c>
       <c r="K4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L4" t="n">
-        <v>4.881646670177876</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="M4" t="n">
-        <v>4.881646670177876</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N4" t="n">
-        <v>9.215818947438606</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O4" t="n">
         <v>13.73248268900505</v>
@@ -4510,28 +4510,28 @@
         <v>13.64077611982112</v>
       </c>
       <c r="R4" t="n">
-        <v>9.032405809070742</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S4" t="n">
-        <v>9.032405809070742</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="U4" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="V4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="X4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.03013735929834</v>
+        <v>22.96961462889125</v>
       </c>
       <c r="C5" t="n">
-        <v>73.66565338517404</v>
+        <v>22.96961462889125</v>
       </c>
       <c r="D5" t="n">
-        <v>73.66565338517404</v>
+        <v>22.96961462889125</v>
       </c>
       <c r="E5" t="n">
-        <v>73.66565338517404</v>
+        <v>22.96961462889125</v>
       </c>
       <c r="F5" t="n">
-        <v>66.72015263597056</v>
+        <v>16.02411387968777</v>
       </c>
       <c r="G5" t="n">
-        <v>52.70360189103145</v>
+        <v>2.007563134748653</v>
       </c>
       <c r="H5" t="n">
-        <v>27.35558251289012</v>
+        <v>2.007563134748653</v>
       </c>
       <c r="I5" t="n">
-        <v>2.007563134748793</v>
+        <v>2.007563134748653</v>
       </c>
       <c r="J5" t="n">
-        <v>2.007563134748793</v>
+        <v>26.85115692726324</v>
       </c>
       <c r="K5" t="n">
-        <v>2.007563134748793</v>
+        <v>26.85115692726324</v>
       </c>
       <c r="L5" t="n">
-        <v>25.84737535989072</v>
+        <v>26.85115692726324</v>
       </c>
       <c r="M5" t="n">
-        <v>50.69096915240704</v>
+        <v>51.69475071977783</v>
       </c>
       <c r="N5" t="n">
-        <v>75.53456294492335</v>
+        <v>76.53834451229241</v>
       </c>
       <c r="O5" t="n">
-        <v>100.3781567374397</v>
+        <v>86.66218440173481</v>
       </c>
       <c r="P5" t="n">
-        <v>100.3781567374397</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="Q5" t="n">
-        <v>100.3781567374397</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="R5" t="n">
-        <v>100.3781567374397</v>
+        <v>75.03013735929311</v>
       </c>
       <c r="S5" t="n">
-        <v>75.03013735929834</v>
+        <v>73.66565338517037</v>
       </c>
       <c r="T5" t="n">
-        <v>75.03013735929834</v>
+        <v>73.66565338517037</v>
       </c>
       <c r="U5" t="n">
-        <v>75.03013735929834</v>
+        <v>48.31763400703081</v>
       </c>
       <c r="V5" t="n">
-        <v>75.03013735929834</v>
+        <v>22.96961462889125</v>
       </c>
       <c r="W5" t="n">
-        <v>75.03013735929834</v>
+        <v>22.96961462889125</v>
       </c>
       <c r="X5" t="n">
-        <v>75.03013735929834</v>
+        <v>22.96961462889125</v>
       </c>
       <c r="Y5" t="n">
-        <v>75.03013735929834</v>
+        <v>22.96961462889125</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.05162126917278</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="C6" t="n">
-        <v>78.05162126917278</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="D6" t="n">
-        <v>52.70360189103145</v>
+        <v>75.03013735929311</v>
       </c>
       <c r="E6" t="n">
-        <v>27.35558251289012</v>
+        <v>75.03013735929311</v>
       </c>
       <c r="F6" t="n">
-        <v>27.35558251289012</v>
+        <v>49.68211798115354</v>
       </c>
       <c r="G6" t="n">
-        <v>27.35558251289012</v>
+        <v>49.68211798115354</v>
       </c>
       <c r="H6" t="n">
-        <v>27.35558251289012</v>
+        <v>24.33409860301397</v>
       </c>
       <c r="I6" t="n">
-        <v>2.007563134748793</v>
+        <v>2.007563134748653</v>
       </c>
       <c r="J6" t="n">
-        <v>2.007563134748793</v>
+        <v>2.007563134748653</v>
       </c>
       <c r="K6" t="n">
-        <v>2.007563134748793</v>
+        <v>2.007563134748653</v>
       </c>
       <c r="L6" t="n">
-        <v>26.85115692726511</v>
+        <v>26.85115692726324</v>
       </c>
       <c r="M6" t="n">
-        <v>51.69475071978142</v>
+        <v>39.05175841609646</v>
       </c>
       <c r="N6" t="n">
-        <v>76.53834451229774</v>
+        <v>63.89535220861104</v>
       </c>
       <c r="O6" t="n">
-        <v>88.73894600113162</v>
+        <v>88.73894600112563</v>
       </c>
       <c r="P6" t="n">
-        <v>100.3781567374397</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="Q6" t="n">
-        <v>100.3781567374397</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3781567374397</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="S6" t="n">
-        <v>100.3781567374397</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="T6" t="n">
-        <v>100.3781567374397</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="U6" t="n">
-        <v>78.05162126917278</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="V6" t="n">
-        <v>78.05162126917278</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="W6" t="n">
-        <v>78.05162126917278</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="X6" t="n">
-        <v>78.05162126917278</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="Y6" t="n">
-        <v>78.05162126917278</v>
+        <v>100.3781567374327</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.68211798115701</v>
+        <v>52.70360189102779</v>
       </c>
       <c r="C7" t="n">
-        <v>49.68211798115701</v>
+        <v>52.70360189102779</v>
       </c>
       <c r="D7" t="n">
-        <v>49.68211798115701</v>
+        <v>52.70360189102779</v>
       </c>
       <c r="E7" t="n">
-        <v>27.35558251289012</v>
+        <v>52.70360189102779</v>
       </c>
       <c r="F7" t="n">
-        <v>27.35558251289012</v>
+        <v>52.70360189102779</v>
       </c>
       <c r="G7" t="n">
-        <v>27.35558251289012</v>
+        <v>52.70360189102779</v>
       </c>
       <c r="H7" t="n">
-        <v>27.35558251289012</v>
+        <v>27.35558251288822</v>
       </c>
       <c r="I7" t="n">
-        <v>27.35558251289012</v>
+        <v>27.35558251288822</v>
       </c>
       <c r="J7" t="n">
-        <v>2.007563134748793</v>
+        <v>2.007563134748653</v>
       </c>
       <c r="K7" t="n">
-        <v>26.85115692726511</v>
+        <v>26.85115692726324</v>
       </c>
       <c r="L7" t="n">
-        <v>26.85115692726511</v>
+        <v>26.85115692726324</v>
       </c>
       <c r="M7" t="n">
-        <v>50.69096915240704</v>
+        <v>51.69475071977783</v>
       </c>
       <c r="N7" t="n">
-        <v>75.53456294492335</v>
+        <v>76.53834451229241</v>
       </c>
       <c r="O7" t="n">
-        <v>75.53456294492335</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="P7" t="n">
-        <v>100.3781567374397</v>
+        <v>100.3781567374327</v>
       </c>
       <c r="Q7" t="n">
-        <v>75.03013735929834</v>
+        <v>75.03013735929311</v>
       </c>
       <c r="R7" t="n">
-        <v>75.03013735929834</v>
+        <v>52.70360189102779</v>
       </c>
       <c r="S7" t="n">
-        <v>75.03013735929834</v>
+        <v>52.70360189102779</v>
       </c>
       <c r="T7" t="n">
-        <v>75.03013735929834</v>
+        <v>52.70360189102779</v>
       </c>
       <c r="U7" t="n">
-        <v>75.03013735929834</v>
+        <v>52.70360189102779</v>
       </c>
       <c r="V7" t="n">
-        <v>75.03013735929834</v>
+        <v>52.70360189102779</v>
       </c>
       <c r="W7" t="n">
-        <v>75.03013735929834</v>
+        <v>52.70360189102779</v>
       </c>
       <c r="X7" t="n">
-        <v>49.68211798115701</v>
+        <v>52.70360189102779</v>
       </c>
       <c r="Y7" t="n">
-        <v>49.68211798115701</v>
+        <v>52.70360189102779</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142.6835685788049</v>
+        <v>355.6498472710872</v>
       </c>
       <c r="C8" t="n">
-        <v>142.6835685788049</v>
+        <v>355.6498472710872</v>
       </c>
       <c r="D8" t="n">
-        <v>142.6835685788049</v>
+        <v>355.6498472710872</v>
       </c>
       <c r="E8" t="n">
-        <v>142.6835685788049</v>
+        <v>242.4047360337906</v>
       </c>
       <c r="F8" t="n">
-        <v>135.7380678296014</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="G8" t="n">
         <v>122.2141240472905</v>
       </c>
       <c r="H8" t="n">
-        <v>122.2141240472905</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I8" t="n">
         <v>8.969012809993892</v>
@@ -4844,10 +4844,10 @@
         <v>418.5145477870889</v>
       </c>
       <c r="X8" t="n">
-        <v>305.2694365497923</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.9286798161015</v>
+        <v>355.6498472710872</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.8980809306692</v>
+        <v>185.0170613811699</v>
       </c>
       <c r="C9" t="n">
-        <v>176.8980809306692</v>
+        <v>185.0170613811699</v>
       </c>
       <c r="D9" t="n">
-        <v>176.8980809306692</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="E9" t="n">
-        <v>176.8980809306692</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F9" t="n">
-        <v>176.8980809306692</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G9" t="n">
-        <v>63.65296969337254</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H9" t="n">
-        <v>63.65296969337254</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I9" t="n">
         <v>8.969012809993892</v>
@@ -4890,10 +4890,10 @@
         <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>230.1803012028977</v>
+        <v>176.439439640395</v>
       </c>
       <c r="N9" t="n">
-        <v>341.1718347265721</v>
+        <v>287.4309731640694</v>
       </c>
       <c r="O9" t="n">
         <v>387.4830745953194</v>
@@ -4908,25 +4908,25 @@
         <v>411.5072838557631</v>
       </c>
       <c r="S9" t="n">
+        <v>411.5072838557631</v>
+      </c>
+      <c r="T9" t="n">
+        <v>411.5072838557631</v>
+      </c>
+      <c r="U9" t="n">
+        <v>411.5072838557631</v>
+      </c>
+      <c r="V9" t="n">
+        <v>411.5072838557631</v>
+      </c>
+      <c r="W9" t="n">
         <v>298.2621726184665</v>
       </c>
-      <c r="T9" t="n">
-        <v>185.0170613811699</v>
-      </c>
-      <c r="U9" t="n">
-        <v>176.8980809306692</v>
-      </c>
-      <c r="V9" t="n">
-        <v>176.8980809306692</v>
-      </c>
-      <c r="W9" t="n">
-        <v>176.8980809306692</v>
-      </c>
       <c r="X9" t="n">
-        <v>176.8980809306692</v>
+        <v>298.2621726184665</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.8980809306692</v>
+        <v>298.2621726184665</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.2023305391979</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="C10" t="n">
-        <v>155.2023305391979</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="D10" t="n">
         <v>41.9572193019013</v>
@@ -4963,16 +4963,16 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K10" t="n">
-        <v>85.67486684193852</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L10" t="n">
-        <v>196.6664003656129</v>
+        <v>119.9605463336683</v>
       </c>
       <c r="M10" t="n">
-        <v>307.6579338892873</v>
+        <v>230.9520798573427</v>
       </c>
       <c r="N10" t="n">
-        <v>337.4591069760202</v>
+        <v>341.9436133810171</v>
       </c>
       <c r="O10" t="n">
         <v>448.4506404996946</v>
@@ -4987,25 +4987,25 @@
         <v>320.7928375242964</v>
       </c>
       <c r="S10" t="n">
-        <v>320.7928375242964</v>
+        <v>207.5477262869998</v>
       </c>
       <c r="T10" t="n">
-        <v>320.7928375242964</v>
+        <v>207.5477262869998</v>
       </c>
       <c r="U10" t="n">
-        <v>268.4474417764945</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="V10" t="n">
-        <v>268.4474417764945</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="W10" t="n">
-        <v>268.4474417764945</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="X10" t="n">
-        <v>268.4474417764945</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.4474417764945</v>
+        <v>41.9572193019013</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.632236038043</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.669719097632</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D11" t="n">
-        <v>1095.404020490881</v>
+        <v>985.1133520179759</v>
       </c>
       <c r="E11" t="n">
-        <v>709.615767892637</v>
+        <v>599.3250994197316</v>
       </c>
       <c r="F11" t="n">
-        <v>298.6298631030294</v>
+        <v>188.339194630124</v>
       </c>
       <c r="G11" t="n">
         <v>66.51211643218342</v>
@@ -5051,7 +5051,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339057</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077977</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102165</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,13 +5121,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5139,31 +5139,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>403.1511359853714</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C13" t="n">
-        <v>234.2149530574645</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D13" t="n">
-        <v>234.2149530574645</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E13" t="n">
-        <v>234.2149530574645</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1833.86838319895</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1612.101767768476</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1322.998900894119</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.998900894119</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W13" t="n">
-        <v>1033.581730857159</v>
+        <v>1306.899122094323</v>
       </c>
       <c r="X13" t="n">
-        <v>805.5921799591413</v>
+        <v>1078.909571196306</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.7996008156111</v>
+        <v>858.1169920527757</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1866.026662509056</v>
+        <v>1958.885600665791</v>
       </c>
       <c r="C14" t="n">
-        <v>1497.064145568645</v>
+        <v>1589.923083725379</v>
       </c>
       <c r="D14" t="n">
-        <v>1497.064145568645</v>
+        <v>1589.923083725379</v>
       </c>
       <c r="E14" t="n">
         <v>1212.528589613197</v>
@@ -5267,19 +5267,19 @@
         <v>801.5426848235895</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347372</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810102</v>
+        <v>97.48584166810105</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
@@ -5291,37 +5291,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599077</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632626</v>
+        <v>4046.391352789361</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423755</v>
+        <v>3792.922073580489</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080184</v>
+        <v>3461.859186236919</v>
       </c>
       <c r="W14" t="n">
-        <v>3016.23159281007</v>
+        <v>3109.090530966804</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.76583454899</v>
+        <v>2735.624772705724</v>
       </c>
       <c r="Y14" t="n">
-        <v>2252.626502573178</v>
+        <v>2345.485440729913</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J15" t="n">
         <v>216.5575109835859</v>
@@ -5364,10 +5364,10 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.315654538067</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N15" t="n">
-        <v>1522.315654538067</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O15" t="n">
         <v>1934.929714729833</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>555.9367203349885</v>
+        <v>866.1959702777251</v>
       </c>
       <c r="C16" t="n">
-        <v>482.5130376079443</v>
+        <v>697.2597873498182</v>
       </c>
       <c r="D16" t="n">
-        <v>482.5130376079443</v>
+        <v>547.1431479374825</v>
       </c>
       <c r="E16" t="n">
-        <v>482.5130376079443</v>
+        <v>399.2300543550894</v>
       </c>
       <c r="F16" t="n">
-        <v>482.5130376079443</v>
+        <v>252.340106857179</v>
       </c>
       <c r="G16" t="n">
-        <v>315.1533397258816</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152617</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755866</v>
+        <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
         <v>396.9405013869776</v>
@@ -5458,28 +5458,28 @@
         <v>2279.168624967671</v>
       </c>
       <c r="R16" t="n">
-        <v>2204.76693339754</v>
+        <v>2225.609013303316</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685725</v>
+        <v>2039.9031015915</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.760544521729</v>
+        <v>1819.602624427504</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.676394306093</v>
+        <v>1530.518474211869</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.991906100206</v>
+        <v>1275.833986005982</v>
       </c>
       <c r="W16" t="n">
-        <v>965.5747360632456</v>
+        <v>1275.833986005982</v>
       </c>
       <c r="X16" t="n">
-        <v>737.5851851652283</v>
+        <v>1047.844435107965</v>
       </c>
       <c r="Y16" t="n">
-        <v>737.5851851652283</v>
+        <v>1047.844435107965</v>
       </c>
     </row>
     <row r="17">
@@ -5501,61 +5501,61 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
         <v>2476.13298385146</v>
@@ -5586,10 +5586,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
         <v>216.5575109835859</v>
@@ -5662,16 +5662,16 @@
         <v>386.7245456315384</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H19" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
         <v>459.5287020443611</v>
@@ -5680,16 +5680,16 @@
         <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
         <v>2529.521427597205</v>
@@ -5701,10 +5701,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
         <v>1664.992195357083</v>
@@ -5738,46 +5738,46 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
         <v>4017.391409283565</v>
@@ -5823,10 +5823,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
         <v>216.5575109835859</v>
@@ -5838,19 +5838,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1381.83934483395</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1959.694692760353</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5887,16 +5887,16 @@
         <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
         <v>251.2943450749443</v>
@@ -5905,16 +5905,16 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5923,7 +5923,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
         <v>2392.455631028688</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796671</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511622</v>
@@ -5987,10 +5987,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6002,7 +6002,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612703</v>
@@ -6020,19 +6020,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538067</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="N24" t="n">
-        <v>2049.239235375538</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O24" t="n">
-        <v>2555.644190323788</v>
+        <v>2057.65749280243</v>
       </c>
       <c r="P24" t="n">
-        <v>2555.644190323788</v>
+        <v>2444.759048354586</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6130,10 +6130,10 @@
         <v>617.6685920609046</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
         <v>251.2943450749443</v>
@@ -6148,10 +6148,10 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796669</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6227,7 +6227,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6236,7 +6236,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233288</v>
@@ -6251,25 +6251,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477709</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609038</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039794</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315377</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749435</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
@@ -6385,22 +6385,22 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443594</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902769</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q28" t="n">
         <v>2529.521427597204</v>
@@ -6440,31 +6440,31 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076833</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951448</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
@@ -6473,7 +6473,7 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233287</v>
@@ -6485,28 +6485,28 @@
         <v>4142.907144767227</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551806</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796655</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162819</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511424</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
         <v>2001.213713746738</v>
@@ -6716,34 +6716,34 @@
         <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
         <v>216.5575109835859</v>
@@ -6786,19 +6786,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>973.3971899277776</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477729</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609058</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039813</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315396</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749453</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6871,37 +6871,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796664</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162828</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511527</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511621</v>
@@ -6938,7 +6938,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050964</v>
@@ -6968,19 +6968,19 @@
         <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>973.3971899277775</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.315654538066</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N36" t="n">
         <v>2049.239235375539</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502094</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039796</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511621</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313935</v>
@@ -7138,7 +7138,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796664</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162828</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511515</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511621</v>
@@ -7175,16 +7175,16 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233287</v>
@@ -7199,25 +7199,25 @@
         <v>4249.02044875581</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502096</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477715</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F40" t="n">
         <v>386.7245456315384</v>
@@ -7324,16 +7324,16 @@
         <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511621</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L40" t="n">
         <v>857.3827676902786</v>
@@ -7357,13 +7357,13 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
         <v>1664.992195357083</v>
@@ -7372,7 +7372,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7397,55 +7397,55 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J41" t="n">
         <v>337.4933016076835</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951468</v>
+        <v>766.6831886951446</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
@@ -7485,31 +7485,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448922</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6694118551811</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375539</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
@@ -7688,10 +7688,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7734,19 +7734,19 @@
         <v>973.3971899277775</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538066</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N45" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375539</v>
       </c>
       <c r="O45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7795,7 +7795,7 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
@@ -7804,13 +7804,13 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
         <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7837,7 +7837,7 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
         <v>1664.992195357083</v>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>69.75247211164648</v>
+        <v>74.13042390685935</v>
       </c>
       <c r="K2" t="n">
-        <v>57.8521323086317</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L2" t="n">
         <v>28.8362588753597</v>
       </c>
       <c r="M2" t="n">
-        <v>4.474515194684224</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>13.72420959127265</v>
       </c>
       <c r="P2" t="n">
-        <v>42.66898511507466</v>
+        <v>47.23127172271754</v>
       </c>
       <c r="Q2" t="n">
         <v>80.70197082457096</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>60.67557455063191</v>
+        <v>65.23786115827478</v>
       </c>
       <c r="L4" t="n">
         <v>51.99825569640058</v>
@@ -8149,7 +8149,7 @@
         <v>42.05346274136652</v>
       </c>
       <c r="O4" t="n">
-        <v>59.87999055852636</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P4" t="n">
         <v>71.15065506373918</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>59.98603790188571</v>
+        <v>85.08057708624472</v>
       </c>
       <c r="K5" t="n">
-        <v>38.65249250745305</v>
+        <v>38.6524925074543</v>
       </c>
       <c r="L5" t="n">
-        <v>34.75794632470565</v>
+        <v>10.67732791547292</v>
       </c>
       <c r="M5" t="n">
-        <v>4.985793039541619</v>
+        <v>4.985793039541605</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>14.86843828593157</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>26.12175528952363</v>
+        <v>39.97627280033099</v>
       </c>
       <c r="Q5" t="n">
-        <v>68.27569035187707</v>
+        <v>68.27569035187813</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.73519944804799</v>
+        <v>54.73519944804849</v>
       </c>
       <c r="K6" t="n">
-        <v>14.60690655209984</v>
+        <v>14.6069065521007</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>42.56433563048657</v>
+        <v>42.56433563048724</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>79.77321457716657</v>
+        <v>79.77321457716533</v>
       </c>
       <c r="L7" t="n">
-        <v>39.76200282685831</v>
+        <v>39.76200282685896</v>
       </c>
       <c r="M7" t="n">
-        <v>62.71288038216198</v>
+        <v>63.72680115728656</v>
       </c>
       <c r="N7" t="n">
-        <v>54.87131746042967</v>
+        <v>54.8713174604286</v>
       </c>
       <c r="O7" t="n">
-        <v>48.02194588313176</v>
+        <v>72.10256429236497</v>
       </c>
       <c r="P7" t="n">
-        <v>85.44012623234143</v>
+        <v>60.34558704798205</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8611,7 +8611,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
         <v>119.3514840274684</v>
@@ -8620,10 +8620,10 @@
         <v>116.4537900083357</v>
       </c>
       <c r="N10" t="n">
-        <v>26.40320770029784</v>
+        <v>108.4136727881176</v>
       </c>
       <c r="O10" t="n">
-        <v>129.2143182548924</v>
+        <v>124.6845138054006</v>
       </c>
       <c r="P10" t="n">
         <v>33.88793923037925</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.747935129969846e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>2.313759134068562</v>
       </c>
       <c r="G2" t="n">
-        <v>13.99145537648747</v>
+        <v>9.429168768844599</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.3557120022016</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>245.4621743624057</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>345.2225066734011</v>
       </c>
       <c r="X2" t="n">
-        <v>26.69946586663929</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.34636041377521</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>181.1251564493159</v>
+        <v>290.3129182374923</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2092747608415</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>81.64950120997406</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>100.2401696763685</v>
+        <v>8.309820901201419</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.93034877516573</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>94.55737519885403</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>20.63365910671819</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.700062395888381e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1170979.071836365</v>
+        <v>1170979.071836364</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38654.42660963805</v>
+        <v>38654.42660963804</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="E2" t="n">
+        <v>34099.70989709206</v>
+      </c>
+      <c r="F2" t="n">
+        <v>38337.15909756553</v>
+      </c>
+      <c r="G2" t="n">
+        <v>41052.08849321415</v>
+      </c>
+      <c r="H2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="I2" t="n">
+        <v>41052.08849321422</v>
+      </c>
+      <c r="J2" t="n">
+        <v>41052.08849321424</v>
+      </c>
+      <c r="K2" t="n">
         <v>41052.08849321414</v>
       </c>
-      <c r="E2" t="n">
-        <v>34099.70989709207</v>
-      </c>
-      <c r="F2" t="n">
-        <v>38337.1590975655</v>
-      </c>
-      <c r="G2" t="n">
-        <v>41052.0884932142</v>
-      </c>
-      <c r="H2" t="n">
-        <v>41052.08849321421</v>
-      </c>
-      <c r="I2" t="n">
-        <v>41052.08849321421</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>41052.08849321415</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321413</v>
       </c>
-      <c r="L2" t="n">
-        <v>41052.08849321416</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>41052.08849321415</v>
       </c>
-      <c r="N2" t="n">
-        <v>41052.08849321416</v>
-      </c>
       <c r="O2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321415</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>315841.5953976293</v>
       </c>
       <c r="C3" t="n">
-        <v>32698.16472960428</v>
+        <v>32698.16472960149</v>
       </c>
       <c r="D3" t="n">
-        <v>130922.5540522281</v>
+        <v>130922.5540522307</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429535</v>
+        <v>707780.8576429536</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963077</v>
+        <v>215052.1096963079</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177117</v>
+        <v>25288.16188177116</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1193.694917170072</v>
+        <v>1193.694917170098</v>
       </c>
       <c r="K3" t="n">
-        <v>5284.344781164601</v>
+        <v>5284.344781164034</v>
       </c>
       <c r="L3" t="n">
-        <v>47311.66512873922</v>
+        <v>47311.66512873981</v>
       </c>
       <c r="M3" t="n">
         <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578618</v>
+        <v>56542.29359578629</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325582.2724464703</v>
+        <v>325582.2724464702</v>
       </c>
       <c r="C4" t="n">
-        <v>343275.40433095</v>
+        <v>343275.4043309508</v>
       </c>
       <c r="D4" t="n">
         <v>302817.5547799163</v>
       </c>
       <c r="E4" t="n">
-        <v>12210.17896214071</v>
+        <v>12210.17896214066</v>
       </c>
       <c r="F4" t="n">
         <v>12329.65389383922</v>
       </c>
       <c r="G4" t="n">
-        <v>43399.53897605928</v>
+        <v>43399.53897605927</v>
       </c>
       <c r="H4" t="n">
         <v>43399.53897605927</v>
@@ -26439,25 +26439,25 @@
         <v>43399.53897605927</v>
       </c>
       <c r="J4" t="n">
-        <v>43399.53897605925</v>
+        <v>43399.5389760593</v>
       </c>
       <c r="K4" t="n">
-        <v>43399.53897605933</v>
+        <v>43399.53897605931</v>
       </c>
       <c r="L4" t="n">
-        <v>43399.53897605938</v>
+        <v>43399.5389760593</v>
       </c>
       <c r="M4" t="n">
         <v>43399.53897605935</v>
       </c>
       <c r="N4" t="n">
-        <v>43399.53897605934</v>
+        <v>43399.53897605938</v>
       </c>
       <c r="O4" t="n">
-        <v>43399.53897605928</v>
+        <v>43399.53897605935</v>
       </c>
       <c r="P4" t="n">
-        <v>43399.53897605928</v>
+        <v>43399.53897605931</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>41015.74224309583</v>
       </c>
       <c r="C5" t="n">
-        <v>42888.09979601031</v>
+        <v>42888.09979601014</v>
       </c>
       <c r="D5" t="n">
         <v>50823.37311172271</v>
@@ -26479,34 +26479,34 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060697</v>
+        <v>92448.996000607</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="K5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="K5" t="n">
-        <v>95106.4341021553</v>
-      </c>
       <c r="L5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="M5" t="n">
         <v>95106.43410215525</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
         <v>95106.43410215525</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215525</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-643785.1834775575</v>
+        <v>-643905.0665717362</v>
       </c>
       <c r="C6" t="n">
-        <v>-377809.5803633504</v>
+        <v>-377809.5803633482</v>
       </c>
       <c r="D6" t="n">
-        <v>-443511.3934506529</v>
+        <v>-443511.3934506556</v>
       </c>
       <c r="E6" t="n">
-        <v>-760197.6672693954</v>
+        <v>-760545.2861992016</v>
       </c>
       <c r="F6" t="n">
-        <v>-281493.6004931884</v>
+        <v>-281629.346962971</v>
       </c>
       <c r="G6" t="n">
-        <v>-122742.0464667715</v>
+        <v>-122742.0464667716</v>
       </c>
       <c r="H6" t="n">
-        <v>-97453.88458500031</v>
+        <v>-97453.88458500034</v>
       </c>
       <c r="I6" t="n">
-        <v>-97453.88458500046</v>
+        <v>-97453.88458500033</v>
       </c>
       <c r="J6" t="n">
-        <v>-98647.57950217041</v>
+        <v>-98647.57950217044</v>
       </c>
       <c r="K6" t="n">
-        <v>-102738.2293661651</v>
+        <v>-102738.2293661645</v>
       </c>
       <c r="L6" t="n">
-        <v>-144765.5497137397</v>
+        <v>-144765.5497137402</v>
       </c>
       <c r="M6" t="n">
-        <v>-276703.529523302</v>
+        <v>-276703.5295233019</v>
       </c>
       <c r="N6" t="n">
-        <v>-153996.1781807866</v>
+        <v>-153996.1781807868</v>
       </c>
       <c r="O6" t="n">
-        <v>-97453.8845850004</v>
+        <v>-97453.88458500043</v>
       </c>
       <c r="P6" t="n">
-        <v>-97453.8845850004</v>
+        <v>-97453.88458500041</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K2" t="n">
+        <v>31.61020235221399</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221395</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>31.61020235221397</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221399</v>
       </c>
       <c r="N2" t="n">
         <v>31.61020235221397</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>354.8051290642765</v>
+        <v>354.8051290642741</v>
       </c>
       <c r="D3" t="n">
         <v>476.1157511985022</v>
@@ -26790,7 +26790,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="C4" t="n">
-        <v>25.09453918435992</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="D4" t="n">
         <v>112.1126601249237</v>
@@ -26799,13 +26799,13 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="I4" t="n">
         <v>1062.255112188953</v>
@@ -26817,7 +26817,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="L4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
         <v>1062.255112188953</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>28.62369707569172</v>
+        <v>28.62369707568928</v>
       </c>
       <c r="D3" t="n">
-        <v>121.3106221342257</v>
+        <v>121.3106221342281</v>
       </c>
       <c r="E3" t="n">
-        <v>613.6609493947958</v>
+        <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
         <v>188.3831700268245</v>
@@ -27012,16 +27012,16 @@
         <v>4.562286607642875</v>
       </c>
       <c r="C4" t="n">
-        <v>20.53225257671705</v>
+        <v>20.53225257671529</v>
       </c>
       <c r="D4" t="n">
-        <v>87.01812094056375</v>
+        <v>87.0181209405655</v>
       </c>
       <c r="E4" t="n">
         <v>719.2887952773691</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866596</v>
+        <v>230.8536567866601</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>4.562286607642818</v>
       </c>
       <c r="K4" t="n">
-        <v>20.53225257671739</v>
+        <v>20.53225257671506</v>
       </c>
       <c r="L4" t="n">
-        <v>87.01812094056299</v>
+        <v>87.01812094056554</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866596</v>
+        <v>230.8536567866601</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,16 +27258,16 @@
         <v>4.562286607642875</v>
       </c>
       <c r="K4" t="n">
-        <v>20.53225257671705</v>
+        <v>20.53225257671529</v>
       </c>
       <c r="L4" t="n">
-        <v>87.01812094056375</v>
+        <v>87.0181209405655</v>
       </c>
       <c r="M4" t="n">
         <v>719.2887952773691</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866596</v>
+        <v>230.8536567866601</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>322.0271718693308</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I2" t="n">
-        <v>155.3603983125523</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.93700469168593</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S2" t="n">
-        <v>174.5769412441708</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U2" t="n">
         <v>251.2407503367447</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>77.7277975000863</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>343.0316348118297</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>162.5147216058555</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,16 +27464,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>153.0827938477581</v>
       </c>
       <c r="F3" t="n">
-        <v>140.506925785741</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.6419193661031</v>
       </c>
       <c r="H3" t="n">
-        <v>105.4594865644317</v>
+        <v>100.8971999567888</v>
       </c>
       <c r="I3" t="n">
         <v>65.24074378433592</v>
@@ -27509,10 +27509,10 @@
         <v>158.6512997408977</v>
       </c>
       <c r="T3" t="n">
-        <v>192.7745106155041</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8952243311651</v>
+        <v>221.3329377235222</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>201.7545231594656</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>201.1204091696615</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27558,7 +27558,7 @@
         <v>137.761816287615</v>
       </c>
       <c r="J4" t="n">
-        <v>51.77372115642321</v>
+        <v>47.21143454878033</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>32.34636041377521</v>
       </c>
       <c r="R4" t="n">
-        <v>146.2836725955014</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S4" t="n">
         <v>213.7659454939867</v>
       </c>
       <c r="T4" t="n">
-        <v>225.4323882309924</v>
+        <v>221.4139261869805</v>
       </c>
       <c r="U4" t="n">
         <v>281.7246593293082</v>
       </c>
       <c r="V4" t="n">
-        <v>248.1191812798162</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>363.9220526366245</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>299.7726326679719</v>
+        <v>324.867171852332</v>
       </c>
       <c r="I5" t="n">
-        <v>130.3919042021243</v>
+        <v>155.4864433864846</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.27101668051104</v>
+        <v>35.17647749615348</v>
       </c>
       <c r="S5" t="n">
-        <v>151.4225278750424</v>
+        <v>175.166227925021</v>
       </c>
       <c r="T5" t="n">
-        <v>216.8519924687389</v>
+        <v>216.851992468739</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2315447256249</v>
+        <v>226.1370055412667</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>302.6577192857767</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>122.3505263802788</v>
+        <v>122.3505263802806</v>
       </c>
       <c r="E6" t="n">
-        <v>132.550541271041</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>119.9746732090257</v>
       </c>
       <c r="G6" t="n">
         <v>136.5803514139026</v>
       </c>
       <c r="H6" t="n">
-        <v>104.8648697629159</v>
+        <v>79.7703305785578</v>
       </c>
       <c r="I6" t="n">
-        <v>38.02643080710638</v>
+        <v>41.01769987788381</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>52.7746133315686</v>
+        <v>52.77461333156893</v>
       </c>
       <c r="S6" t="n">
-        <v>157.5077020322604</v>
+        <v>157.5077020322605</v>
       </c>
       <c r="T6" t="n">
         <v>197.0886351701983</v>
       </c>
       <c r="U6" t="n">
-        <v>203.7879036944098</v>
+        <v>225.891173807994</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>124.330692532985</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3511668306379</v>
       </c>
       <c r="H7" t="n">
-        <v>156.5386574873599</v>
+        <v>131.4441183030017</v>
       </c>
       <c r="I7" t="n">
-        <v>136.2095672724283</v>
+        <v>136.2095672724285</v>
       </c>
       <c r="J7" t="n">
-        <v>23.02989521538044</v>
+        <v>23.02989521538249</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.491929578628714</v>
+        <v>7.491929578630831</v>
       </c>
       <c r="R7" t="n">
-        <v>148.5250935353349</v>
+        <v>126.4218234217524</v>
       </c>
       <c r="S7" t="n">
-        <v>212.8664106203129</v>
+        <v>212.866410620313</v>
       </c>
       <c r="T7" t="n">
         <v>225.2118449912289</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>200.6151162046772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>270.6211815385569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>269.8177099473381</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
-        <v>319.8727099068761</v>
+        <v>207.7600497819524</v>
       </c>
       <c r="I8" t="n">
-        <v>24.57246563410433</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>257.6184405535454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>337.3905894896998</v>
+        <v>324.0018851452119</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>54.42052352494369</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>35.3324054397151</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>95.47017249486039</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>24.20675900740719</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
         <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>54.13711731454486</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,19 +27980,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>40.54833922112496</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>83.92423484016754</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>217.8362165645265</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>139.582323035996</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.71932005701365</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>36.50281289328871</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28059,13 +28059,13 @@
         <v>26.5763295239214</v>
       </c>
       <c r="S10" t="n">
-        <v>209.0540751673406</v>
+        <v>96.94141504241699</v>
       </c>
       <c r="T10" t="n">
         <v>224.2771565911783</v>
       </c>
       <c r="U10" t="n">
-        <v>234.4502565086721</v>
+        <v>174.1595381740723</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>173.8877135987133</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605497</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221383</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221366</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221204</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605694</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605596</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221511</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>31.61020235221397</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605609</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221579</v>
       </c>
       <c r="T38" t="n">
         <v>31.61020235221397</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605503</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.6102023522152</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605503</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522152</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.426352277645332</v>
+        <v>1.426352277645322</v>
       </c>
       <c r="H5" t="n">
-        <v>14.60763026343526</v>
+        <v>14.60763026343515</v>
       </c>
       <c r="I5" t="n">
-        <v>54.9894461839217</v>
+        <v>54.98944618392132</v>
       </c>
       <c r="J5" t="n">
-        <v>121.0598666248006</v>
+        <v>121.0598666247997</v>
       </c>
       <c r="K5" t="n">
-        <v>181.4373585375275</v>
+        <v>181.4373585375263</v>
       </c>
       <c r="L5" t="n">
-        <v>225.0890870545159</v>
+        <v>225.0890870545143</v>
       </c>
       <c r="M5" t="n">
-        <v>250.454979372091</v>
+        <v>250.4549793720893</v>
       </c>
       <c r="N5" t="n">
-        <v>254.5076027809508</v>
+        <v>254.5076027809491</v>
       </c>
       <c r="O5" t="n">
-        <v>240.3243123201151</v>
+        <v>240.3243123201134</v>
       </c>
       <c r="P5" t="n">
-        <v>205.1112404657459</v>
+        <v>205.1112404657445</v>
       </c>
       <c r="Q5" t="n">
-        <v>154.0299995225724</v>
+        <v>154.0299995225714</v>
       </c>
       <c r="R5" t="n">
-        <v>89.59810126063864</v>
+        <v>89.59810126063803</v>
       </c>
       <c r="S5" t="n">
-        <v>32.50300252684303</v>
+        <v>32.50300252684281</v>
       </c>
       <c r="T5" t="n">
-        <v>6.243857095392443</v>
+        <v>6.243857095392399</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1141081822116265</v>
+        <v>0.1141081822116257</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7631657493080665</v>
+        <v>0.7631657493080612</v>
       </c>
       <c r="H6" t="n">
-        <v>7.370574473580538</v>
+        <v>7.370574473580487</v>
       </c>
       <c r="I6" t="n">
-        <v>26.27566285994878</v>
+        <v>26.2756628599486</v>
       </c>
       <c r="J6" t="n">
-        <v>72.1024272186187</v>
+        <v>72.1024272186182</v>
       </c>
       <c r="K6" t="n">
-        <v>123.2345324222592</v>
+        <v>123.2345324222583</v>
       </c>
       <c r="L6" t="n">
-        <v>163.6489189642341</v>
+        <v>163.6489189642323</v>
       </c>
       <c r="M6" t="n">
-        <v>167.2285731063782</v>
+        <v>154.4578738097287</v>
       </c>
       <c r="N6" t="n">
-        <v>156.4362512676932</v>
+        <v>156.4362512676915</v>
       </c>
       <c r="O6" t="n">
-        <v>154.9200843321554</v>
+        <v>167.6907836288026</v>
       </c>
       <c r="P6" t="n">
-        <v>145.7311859358535</v>
+        <v>145.7311859358525</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.41743845553495</v>
+        <v>97.41743845553428</v>
       </c>
       <c r="R6" t="n">
-        <v>47.38322082107453</v>
+        <v>47.3832208210742</v>
       </c>
       <c r="S6" t="n">
-        <v>14.17546907157745</v>
+        <v>14.17546907157736</v>
       </c>
       <c r="T6" t="n">
-        <v>3.076093524623302</v>
+        <v>3.076093524623281</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05020827298079387</v>
+        <v>0.05020827298079352</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6398125278208264</v>
+        <v>0.639812527820822</v>
       </c>
       <c r="H7" t="n">
-        <v>5.688515020079715</v>
+        <v>5.688515020079676</v>
       </c>
       <c r="I7" t="n">
-        <v>19.24090765482995</v>
+        <v>19.24090765482982</v>
       </c>
       <c r="J7" t="n">
-        <v>45.23474571693242</v>
+        <v>45.23474571693212</v>
       </c>
       <c r="K7" t="n">
-        <v>74.33458277772873</v>
+        <v>74.33458277772822</v>
       </c>
       <c r="L7" t="n">
-        <v>95.12267345437998</v>
+        <v>95.12267345437932</v>
       </c>
       <c r="M7" t="n">
-        <v>100.2935219746773</v>
+        <v>100.2935219746767</v>
       </c>
       <c r="N7" t="n">
-        <v>97.90876618916344</v>
+        <v>97.90876618916276</v>
       </c>
       <c r="O7" t="n">
-        <v>90.43459256871103</v>
+        <v>90.4345925687104</v>
       </c>
       <c r="P7" t="n">
-        <v>77.3824170011661</v>
+        <v>77.38241700116556</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.57557448870575</v>
+        <v>53.57557448870539</v>
       </c>
       <c r="R7" t="n">
-        <v>28.76829784183461</v>
+        <v>28.76829784183441</v>
       </c>
       <c r="S7" t="n">
-        <v>11.15018741665931</v>
+        <v>11.15018741665923</v>
       </c>
       <c r="T7" t="n">
-        <v>2.733744437052621</v>
+        <v>2.733744437052602</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0348988651538633</v>
+        <v>0.03489886515386306</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31610,13 +31610,13 @@
         <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>254.246694046942</v>
+        <v>199.9629954989595</v>
       </c>
       <c r="N9" t="n">
         <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
-        <v>189.3752746148963</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
         <v>195.5578073177395</v>
@@ -32084,13 +32084,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>696.5971294879669</v>
+        <v>529.6867378368194</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O15" t="n">
-        <v>559.3781234260266</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>524.986079689235</v>
@@ -32558,13 +32558,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>554.7018671605765</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>559.3781234260266</v>
       </c>
       <c r="P21" t="n">
         <v>524.986079689235</v>
@@ -32573,7 +32573,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32795,19 +32795,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>663.5877533333045</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>251.9869679943067</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33260,16 +33260,16 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N30" t="n">
         <v>715.0339827160628</v>
@@ -33278,13 +33278,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33506,22 +33506,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N33" t="n">
-        <v>591.0665301174799</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33743,10 +33743,10 @@
         <v>596.9368339155583</v>
       </c>
       <c r="M36" t="n">
-        <v>696.5971294879668</v>
+        <v>645.1509001052091</v>
       </c>
       <c r="N36" t="n">
-        <v>663.5877533333052</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578282</v>
@@ -34132,7 +34132,7 @@
         <v>436.1094324383704</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171657</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L41" t="n">
         <v>810.8671910869749</v>
@@ -34153,7 +34153,7 @@
         <v>554.881956697201</v>
       </c>
       <c r="R41" t="n">
-        <v>322.7706933581559</v>
+        <v>322.7706933581568</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110796</v>
@@ -34208,31 +34208,31 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L42" t="n">
-        <v>357.5145194463146</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879668</v>
       </c>
       <c r="N42" t="n">
-        <v>715.0339827160627</v>
+        <v>663.5877533333052</v>
       </c>
       <c r="O42" t="n">
         <v>654.1164009578282</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34454,22 +34454,22 @@
         <v>596.9368339155583</v>
       </c>
       <c r="M45" t="n">
-        <v>696.5971294879668</v>
+        <v>645.1509001052091</v>
       </c>
       <c r="N45" t="n">
         <v>715.0339827160627</v>
       </c>
       <c r="O45" t="n">
-        <v>366.6975250682023</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="K2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>4.562286607642875</v>
@@ -34714,7 +34714,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L4" t="n">
         <v>4.562286607642875</v>
@@ -34869,7 +34869,7 @@
         <v>4.377951795212859</v>
       </c>
       <c r="O4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>4.562286607642875</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>24.08061840923427</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>25.09453918435992</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="N5" t="n">
-        <v>25.09453918435992</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="O5" t="n">
-        <v>25.09453918435992</v>
+        <v>10.22610089842667</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13.85451751080593</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>25.09453918435992</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="M6" t="n">
-        <v>25.09453918435992</v>
+        <v>12.32383988771032</v>
       </c>
       <c r="N6" t="n">
-        <v>25.09453918435992</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="O6" t="n">
-        <v>12.32383988771099</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="P6" t="n">
-        <v>11.75677852152327</v>
+        <v>11.75677852152228</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>25.09453918435992</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>24.08061840923427</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="N7" t="n">
-        <v>25.09453918435992</v>
+        <v>25.09453918435817</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>24.08061840923259</v>
       </c>
       <c r="P7" t="n">
-        <v>25.09453918435992</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35258,13 +35258,13 @@
         <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1126601249237</v>
+        <v>57.82896157694119</v>
       </c>
       <c r="N9" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
-        <v>46.77903017045187</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
         <v>61.58339990340929</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>77.4806606383279</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>112.1126601249237</v>
@@ -35340,10 +35340,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="N10" t="n">
-        <v>30.10219503710387</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O10" t="n">
-        <v>112.1126601249237</v>
+        <v>107.5828556754318</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659486</v>
+        <v>387.552703914801</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O15" t="n">
-        <v>416.7818789815822</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>391.0116722749048</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
         <v>277.1256801414978</v>
@@ -36051,7 +36051,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
@@ -36206,13 +36206,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>412.5678332385582</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>416.7818789815822</v>
       </c>
       <c r="P21" t="n">
         <v>391.0116722749048</v>
@@ -36221,7 +36221,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817349</v>
@@ -36288,13 +36288,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553057</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36443,19 +36443,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>532.2460412499712</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>112.0051939082852</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
@@ -36525,13 +36525,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010904</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414958</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116839</v>
       </c>
       <c r="K29" t="n">
         <v>433.5251384721831</v>
@@ -36853,7 +36853,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440256</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N30" t="n">
         <v>583.6922706327296</v>
@@ -36926,13 +36926,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.966552622204722e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>255.0635279116842</v>
@@ -37154,22 +37154,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N33" t="n">
-        <v>459.7248180341467</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>458.3824541356841</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659484</v>
+        <v>503.0168661831908</v>
       </c>
       <c r="N36" t="n">
-        <v>532.2460412499719</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O36" t="n">
         <v>511.5201565133838</v>
@@ -37473,13 +37473,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q37" t="n">
         <v>138.4502995641581</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.062225503964594e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>255.0635279116842</v>
@@ -37780,7 +37780,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721851</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L41" t="n">
         <v>575.1007761169876</v>
@@ -37801,7 +37801,7 @@
         <v>332.5762668227514</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>218.9601396664404</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659484</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327294</v>
+        <v>532.2460412499719</v>
       </c>
       <c r="O42" t="n">
         <v>511.5201565133838</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>458.3824541356841</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659484</v>
+        <v>503.0168661831908</v>
       </c>
       <c r="N45" t="n">
         <v>583.6922706327294</v>
       </c>
       <c r="O45" t="n">
-        <v>224.1012806237578</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817348</v>
